--- a/database/industries/felezat/faira/income/yearly/rial.xlsx
+++ b/database/industries/felezat/faira/income/yearly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\faira\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00941E6-7134-4640-BEC2-EBDB017B4394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -66,7 +67,7 @@
     <t>1401-04-20 (14)</t>
   </si>
   <si>
-    <t>1401-09-15 (7)</t>
+    <t>1401-10-28 (8)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +308,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -319,7 +320,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -366,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/felezat/faira/income/yearly/rial.xlsx
+++ b/database/industries/felezat/faira/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00941E6-7134-4640-BEC2-EBDB017B4394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB320C5-4419-4BDA-A706-92A40013EFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +670,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,7 +721,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -742,7 +742,7 @@
         <v>104692906</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -763,7 +763,7 @@
         <v>-69598688</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
@@ -784,7 +784,7 @@
         <v>35094218</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -805,7 +805,7 @@
         <v>-2931148</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -847,7 +847,7 @@
         <v>-933507</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
@@ -868,7 +868,7 @@
         <v>31229563</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
@@ -889,7 +889,7 @@
         <v>-725205</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
@@ -910,7 +910,7 @@
         <v>1789541</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
@@ -931,7 +931,7 @@
         <v>32293899</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
@@ -952,7 +952,7 @@
         <v>-814832</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
@@ -973,7 +973,7 @@
         <v>31479067</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>31479067</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>9629740</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
